--- a/tasks/tnvrform/data/error_example.xlsx
+++ b/tasks/tnvrform/data/error_example.xlsx
@@ -1,142 +1,614 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="工作表1" sheetId="1" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
   <si>
     <t>欄位</t>
   </si>
   <si>
-    <t>欄位1</t>
-  </si>
-  <si>
-    <t>欄位2</t>
-  </si>
-  <si>
-    <t>欄位3</t>
-  </si>
-  <si>
-    <t>欄位4</t>
-  </si>
-  <si>
-    <t>欄位5</t>
-  </si>
-  <si>
-    <t>欄位6</t>
-  </si>
-  <si>
-    <t>欄位7</t>
-  </si>
-  <si>
-    <t>欄位8</t>
-  </si>
-  <si>
-    <t>欄位9</t>
-  </si>
-  <si>
-    <t>欄位10</t>
-  </si>
-  <si>
-    <t>欄位11</t>
-  </si>
-  <si>
-    <t>欄位12</t>
-  </si>
-  <si>
-    <t>欄位13</t>
-  </si>
-  <si>
-    <t>欄位14</t>
-  </si>
-  <si>
-    <t>欄位15</t>
-  </si>
-  <si>
-    <t>欄位16</t>
-  </si>
-  <si>
-    <t>欄位17</t>
-  </si>
-  <si>
-    <t>欄位18</t>
-  </si>
-  <si>
-    <t>欄位19</t>
-  </si>
-  <si>
-    <t>欄位19.1</t>
-  </si>
-  <si>
-    <t>欄位20</t>
-  </si>
-  <si>
-    <t>欄位21</t>
-  </si>
-  <si>
-    <t>欄位22</t>
-  </si>
-  <si>
-    <t>欄位23</t>
-  </si>
-  <si>
-    <t>欄位24</t>
-  </si>
-  <si>
-    <t>欄位25</t>
-  </si>
-  <si>
-    <t>欄位26</t>
-  </si>
-  <si>
-    <t>欄位27</t>
-  </si>
-  <si>
-    <t>欄位28</t>
-  </si>
-  <si>
-    <t>欄位29</t>
-  </si>
-  <si>
-    <t>欄位30</t>
-  </si>
-  <si>
-    <t>欄位31</t>
-  </si>
-  <si>
-    <t>欄位32</t>
-  </si>
-  <si>
-    <t>欄位33</t>
-  </si>
-  <si>
-    <t>欄位34</t>
-  </si>
-  <si>
-    <t>欄位35</t>
-  </si>
-  <si>
-    <t>欄位36</t>
-  </si>
-  <si>
-    <t>欄位37</t>
-  </si>
-  <si>
-    <t>欄位38</t>
-  </si>
-  <si>
-    <t>欄位40</t>
-  </si>
-  <si>
-    <t>項目(無須填寫)</t>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">19.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">36</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">37</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">38</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">項目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">無須填寫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t>有無晶片</t>
@@ -157,82 +629,883 @@
     <t>毛色</t>
   </si>
   <si>
-    <t>性別(只能填公母)</t>
-  </si>
-  <si>
-    <t>成熟度(只能寫成/幼)</t>
+    <r>
+      <t xml:space="preserve">性別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">只能填公母</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">成熟度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">只能寫成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">幼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t>施術日期時間</t>
   </si>
   <si>
-    <t>回置日期(術後日+3天)</t>
-  </si>
-  <si>
-    <t>施術獸醫診療機構(基本上固定為湖光)</t>
-  </si>
-  <si>
-    <t>晶片號碼(可空白)</t>
-  </si>
-  <si>
-    <t>施術時懷孕狀態:
-是/隻數
+    <r>
+      <t xml:space="preserve">回置日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">術後日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">施術獸醫診療機構</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">基本上固定為湖光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">晶片號碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">可空白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">施術時懷孕狀態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">隻數
 否</t>
-  </si>
-  <si>
-    <t>併發症:
-1.否
-2.是,原因_______
-3.安樂死,原因_______</t>
-  </si>
-  <si>
-    <t>發票編號1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">併發症</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">否
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">原因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_______
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">安樂死</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">原因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_______</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">發票編號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
   </si>
   <si>
     <t>金額</t>
   </si>
   <si>
-    <t>(勾選)
-1.飼料(罐頭) 2.營養補給 3.藥劑 4.照護耗材</t>
-  </si>
-  <si>
-    <t>(上一張發票若有累計,於此備註)</t>
-  </si>
-  <si>
-    <t>發票編號2</t>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">勾選</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">飼料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">罐頭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">營養補給 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">藥劑 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">照護耗材</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上一張發票若有累計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">於此備註</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">發票編號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
-    <t>發票編號3</t>
-  </si>
-  <si>
-    <t>發票編號4</t>
-  </si>
-  <si>
-    <t>發票編號5</t>
-  </si>
-  <si>
-    <t>發票編號6</t>
-  </si>
-  <si>
-    <t>(勾選,會出現在表一的最下方)1.評估術後狀況良好,不用住院
-2.評估術後狀況待觀察,留院照護</t>
-  </si>
-  <si>
-    <t>(延續前欄位,若為1.填0。為2填入天數)術後照護天數</t>
-  </si>
-  <si>
-    <t>(延續前欄位)未住院照護天數</t>
-  </si>
-  <si>
-    <t>(希望可以顯示這隻狗可以申請得金額)
-公1000+600
-母1500+1400</t>
-  </si>
-  <si>
-    <t>備註(自行填寫)</t>
+    <r>
+      <t xml:space="preserve">發票編號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">發票編號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">發票編號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">發票編號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">勾選</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">會出現在表一的最下方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">評估術後狀況良好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">不用住院
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">評估術後狀況待觀察</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">留院照護</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">延續前欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">若為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">。為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">填入天數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">術後照護天數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">延續前欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">未住院照護天數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">希望可以顯示這隻狗可以申請得金額</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1000+600
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">母</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1500+1400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">備註</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">自行填寫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t>填寫範例１</t>
@@ -274,7 +1547,18 @@
     <t>900073000008222</t>
   </si>
   <si>
-    <t>是/5</t>
+    <r>
+      <t xml:space="preserve">是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/5</t>
+    </r>
   </si>
   <si>
     <t>否</t>
@@ -286,7 +1570,35 @@
     <t>1000</t>
   </si>
   <si>
-    <t>飼料(罐頭)</t>
+    <r>
+      <t xml:space="preserve">飼料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">罐頭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t>ML22223333</t>
@@ -337,7 +1649,35 @@
     <t>照護耗材</t>
   </si>
   <si>
-    <t>餘200。貼於900073000008222</t>
+    <r>
+      <t xml:space="preserve">餘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">。貼於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">900073000008222</t>
+    </r>
   </si>
   <si>
     <t>DD98765432</t>
@@ -364,13 +1704,79 @@
     <t>900073000008650</t>
   </si>
   <si>
-    <t>是/因為他太胖</t>
-  </si>
-  <si>
-    <t>餘100。貼於900073000073350</t>
-  </si>
-  <si>
-    <t>收據:XX商行</t>
+    <r>
+      <t xml:space="preserve">是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">因為他太胖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">餘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">。貼於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">900073000073350</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">收據</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">商行</t>
+    </r>
   </si>
   <si>
     <t>1365</t>
@@ -385,35 +1791,166 @@
     <t>5</t>
   </si>
   <si>
-    <t>不剪耳,附寵登證明</t>
-  </si>
-  <si>
-    <t>選擇「檔案 =&gt; 建立副本」 然後從第七列欄位一開始填，不必特地刪除以上填寫範例，填完後選擇「檔案 =&gt; 下載格式 =&gt; Microsoft Excel (.xlsx) 」即可輸出格式正確的資料表。</t>
-  </si>
-  <si>
-    <t>是.5</t>
+    <r>
+      <t xml:space="preserve">不剪耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">附寵登證明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">選擇「檔案 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">建立副本」 然後從第七列欄位一開始填，不必特地刪除以上填寫範例，填完後選擇「檔案 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下載格式 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=&gt; Microsoft Excel (.xlsx) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">」即可輸出格式正確的資料表。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.5</t>
+    </r>
   </si>
   <si>
     <t>貓</t>
   </si>
   <si>
     <t>又</t>
+  </si>
+  <si>
+    <t>jklj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -421,62 +1958,107 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+  <cellXfs count="6">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="8" max="8" width="15.86"/>
-    <col customWidth="1" min="9" max="9" width="17.0"/>
-    <col customWidth="1" min="10" max="10" width="18.14"/>
-    <col customWidth="1" min="13" max="13" width="20.29"/>
-    <col customWidth="1" min="15" max="15" width="16.86"/>
-    <col customWidth="1" min="40" max="40" width="33.43"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.8673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.1326530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.2959183673469"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.8673469387755"/>
+    <col collapsed="false" hidden="false" max="39" min="16" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="33.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +2183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -641,10 +2223,10 @@
       <c r="M2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="P2" s="1"/>
@@ -655,10 +2237,10 @@
       <c r="S2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="3" t="s">
         <v>59</v>
       </c>
       <c r="V2" s="1" t="s">
@@ -706,33 +2288,33 @@
       <c r="AJ2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AL2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AN2" s="3" t="s">
         <v>69</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -750,16 +2332,16 @@
       <c r="I3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -768,64 +2350,64 @@
       <c r="O3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="1" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="3" t="s">
         <v>87</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="1" t="s">
+      <c r="U3" s="4"/>
+      <c r="V3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="3" t="s">
         <v>90</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="1" t="s">
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AL3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AM3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AN3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AO3" s="2"/>
+      <c r="AO3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -843,16 +2425,16 @@
       <c r="I4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="3" t="s">
         <v>102</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -861,12 +2443,12 @@
       <c r="O4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="1" t="s">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="3" t="s">
         <v>90</v>
       </c>
       <c r="T4" s="1" t="s">
@@ -875,50 +2457,50 @@
       <c r="U4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="1" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AL4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AM4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AN4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AO4" s="2"/>
+      <c r="AO4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -936,30 +2518,30 @@
       <c r="I5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="3" t="s">
         <v>102</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="1" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="3" t="s">
         <v>107</v>
       </c>
       <c r="T5" s="1" t="s">
@@ -971,51 +2553,51 @@
       <c r="V5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="1" t="s">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AL5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AM5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AN5" s="3" t="s">
         <v>93</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1033,16 +2615,16 @@
       <c r="I7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="3" t="s">
         <v>81</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -1051,61 +2633,61 @@
       <c r="O7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="1" t="s">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="3" t="s">
         <v>87</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="1" t="s">
+      <c r="U7" s="4"/>
+      <c r="V7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="3" t="s">
         <v>90</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="1" t="s">
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AL7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AM7" s="1" t="s">
+      <c r="AM7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AN7" s="1" t="s">
+      <c r="AN7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AO7" s="2"/>
+      <c r="AO7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1123,16 +2705,16 @@
       <c r="I8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="3" t="s">
         <v>102</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -1141,12 +2723,12 @@
       <c r="O8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="1" t="s">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="3" t="s">
         <v>90</v>
       </c>
       <c r="T8" s="1" t="s">
@@ -1155,47 +2737,47 @@
       <c r="U8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="1" t="s">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AL8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AM8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AN8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AO8" s="2"/>
+      <c r="AO8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1213,30 +2795,30 @@
       <c r="I9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="3" t="s">
         <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="1" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="3" t="s">
         <v>107</v>
       </c>
       <c r="T9" s="1" t="s">
@@ -1248,39 +2830,50 @@
       <c r="V9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="1" t="s">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AL9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AM9" s="1" t="s">
+      <c r="AM9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AN9" s="1" t="s">
+      <c r="AN9" s="3" t="s">
         <v>93</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>121</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G10" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>